--- a/examples/sources/data/unsolved/to_schedule/2019-02-12.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-12.xlsx
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
